--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfa-Erbb2.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H2">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J2">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N2">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P2">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q2">
-        <v>2.34885655485</v>
+        <v>0.1361639436964445</v>
       </c>
       <c r="R2">
-        <v>21.13970899365</v>
+        <v>1.225475493268</v>
       </c>
       <c r="S2">
-        <v>0.1823623766717987</v>
+        <v>0.09457567310043961</v>
       </c>
       <c r="T2">
-        <v>0.1823623766717987</v>
+        <v>0.09457567310043959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H3">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I3">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J3">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P3">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q3">
-        <v>4.56652722357</v>
+        <v>0.3670557210146667</v>
       </c>
       <c r="R3">
-        <v>41.09874501213</v>
+        <v>3.303501489132</v>
       </c>
       <c r="S3">
-        <v>0.3545396401100691</v>
+        <v>0.254946654289918</v>
       </c>
       <c r="T3">
-        <v>0.354539640110069</v>
+        <v>0.254946654289918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.07757</v>
+        <v>0.08661466666666667</v>
       </c>
       <c r="H4">
-        <v>3.23271</v>
+        <v>0.259844</v>
       </c>
       <c r="I4">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="J4">
-        <v>0.7762391405615933</v>
+        <v>0.5374496355558498</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N4">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O4">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P4">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q4">
-        <v>3.08270040273</v>
+        <v>0.2705655965133333</v>
       </c>
       <c r="R4">
-        <v>27.74430362457</v>
+        <v>2.43509036862</v>
       </c>
       <c r="S4">
-        <v>0.2393371237797255</v>
+        <v>0.1879273081654923</v>
       </c>
       <c r="T4">
-        <v>0.2393371237797255</v>
+        <v>0.1879273081654922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.116376</v>
       </c>
       <c r="I5">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J5">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N5">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P5">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q5">
-        <v>0.08455770249333334</v>
+        <v>0.06098357134133334</v>
       </c>
       <c r="R5">
-        <v>0.76101932244</v>
+        <v>0.5488521420719999</v>
       </c>
       <c r="S5">
-        <v>0.006564957558072717</v>
+        <v>0.04235748577121949</v>
       </c>
       <c r="T5">
-        <v>0.006564957558072715</v>
+        <v>0.04235748577121948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.116376</v>
       </c>
       <c r="I6">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J6">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P6">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q6">
         <v>0.164392776392</v>
@@ -818,10 +818,10 @@
         <v>1.479534987528</v>
       </c>
       <c r="S6">
-        <v>0.01276325595474057</v>
+        <v>0.1141826320393909</v>
       </c>
       <c r="T6">
-        <v>0.01276325595474057</v>
+        <v>0.1141826320393909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.116376</v>
       </c>
       <c r="I7">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034004</v>
       </c>
       <c r="J7">
-        <v>0.02794423447262389</v>
+        <v>0.2407068810034003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N7">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O7">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P7">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q7">
-        <v>0.110975726888</v>
+        <v>0.12117786772</v>
       </c>
       <c r="R7">
-        <v>0.9987815419920001</v>
+        <v>1.09060080948</v>
       </c>
       <c r="S7">
-        <v>0.008616020959810605</v>
+        <v>0.08416676319279</v>
       </c>
       <c r="T7">
-        <v>0.008616020959810601</v>
+        <v>0.08416676319278997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H8">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I8">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J8">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.179771666666667</v>
+        <v>1.572065666666667</v>
       </c>
       <c r="N8">
-        <v>6.539315</v>
+        <v>4.716197</v>
       </c>
       <c r="O8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834306</v>
       </c>
       <c r="P8">
-        <v>0.2349306639444428</v>
+        <v>0.1759712293834305</v>
       </c>
       <c r="Q8">
-        <v>0.5925302385122222</v>
+        <v>0.05620449171466667</v>
       </c>
       <c r="R8">
-        <v>5.33277214661</v>
+        <v>0.505840425432</v>
       </c>
       <c r="S8">
-        <v>0.04600332971457132</v>
+        <v>0.03903807051177148</v>
       </c>
       <c r="T8">
-        <v>0.04600332971457131</v>
+        <v>0.03903807051177148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H9">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I9">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J9">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.713403</v>
       </c>
       <c r="O9">
-        <v>0.4567402255103586</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="P9">
-        <v>0.4567402255103585</v>
+        <v>0.4743638053196239</v>
       </c>
       <c r="Q9">
-        <v>1.151967096231333</v>
+        <v>0.151509861352</v>
       </c>
       <c r="R9">
-        <v>10.367703866082</v>
+        <v>1.363588752168</v>
       </c>
       <c r="S9">
-        <v>0.08943732944554898</v>
+        <v>0.1052345189903151</v>
       </c>
       <c r="T9">
-        <v>0.08943732944554897</v>
+        <v>0.1052345189903151</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2718313333333333</v>
+        <v>0.035752</v>
       </c>
       <c r="H10">
-        <v>0.8154939999999999</v>
+        <v>0.107256</v>
       </c>
       <c r="I10">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="J10">
-        <v>0.1958166249657829</v>
+        <v>0.2218434834407499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.860789</v>
+        <v>3.123785</v>
       </c>
       <c r="N10">
-        <v>8.582367000000001</v>
+        <v>9.371354999999999</v>
       </c>
       <c r="O10">
-        <v>0.3083291105451987</v>
+        <v>0.3496649652969456</v>
       </c>
       <c r="P10">
-        <v>0.3083291105451986</v>
+        <v>0.3496649652969455</v>
       </c>
       <c r="Q10">
-        <v>0.7776520882553334</v>
+        <v>0.11168156132</v>
       </c>
       <c r="R10">
-        <v>6.998868794298001</v>
+        <v>1.00513405188</v>
       </c>
       <c r="S10">
-        <v>0.06037596580566258</v>
+        <v>0.07757089393866333</v>
       </c>
       <c r="T10">
-        <v>0.06037596580566257</v>
+        <v>0.07757089393866333</v>
       </c>
     </row>
   </sheetData>
